--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5273E77-828B-4C78-9622-7AC936DB05CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA7970-1F7D-41A8-B158-DAB78950A322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31590" yWindow="-11490" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,11 +4414,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA7970-1F7D-41A8-B158-DAB78950A322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA8F28-2583-4E97-860D-B3D87326FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="-11490" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-9480" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,39 +4417,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
+        <f>1/$B$1</f>
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="F1:K1" si="1">1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA8F28-2583-4E97-860D-B3D87326FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30746FB-D095-4667-ADDB-6EEA9F7407B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-9480" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35055" yWindow="-7740" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30746FB-D095-4667-ADDB-6EEA9F7407B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34595A88-BDE4-460D-8E68-27E1E5664561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35055" yWindow="-7740" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="71" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -31062,7 +31062,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31303,76 +31303,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -65669,8 +65669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65911,76 +65911,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34595A88-BDE4-460D-8E68-27E1E5664561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35D2577-2EC0-4544-9A1A-BBFA3F021C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="71" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -65669,7 +65669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35D2577-2EC0-4544-9A1A-BBFA3F021C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A9036-7E06-4FA2-8E7A-1CB22B950920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A9036-7E06-4FA2-8E7A-1CB22B950920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7542A95D-6F57-4BA5-9F3D-879E80B53A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7542A95D-6F57-4BA5-9F3D-879E80B53A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237F8F6-1879-48C0-AE3F-5C63BE0A13F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2043.xlsx
+++ b/data/CS5/case9/case9_2043.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237F8F6-1879-48C0-AE3F-5C63BE0A13F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03394E75-9AE1-48C8-BC15-B3EEEE9ED3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
